--- a/ЛАБА1.xlsx
+++ b/ЛАБА1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ИСИТ\2-МД-35\Пылаева Алеся\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alesapylaeva/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FA568A-C1A6-43C0-A487-DB86771D4B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77769686-E713-9F4D-8B25-73C09408E526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DF7E6C1F-95FA-41CB-8EF4-4C43AA9BFB0F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28420" windowHeight="17300" xr2:uid="{DF7E6C1F-95FA-41CB-8EF4-4C43AA9BFB0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="85">
   <si>
     <t>Фамилия</t>
   </si>
@@ -253,6 +264,39 @@
   </si>
   <si>
     <t>Стипендия</t>
+  </si>
+  <si>
+    <t>Наличие льгот</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Повышенная стипендия</t>
+  </si>
+  <si>
+    <t>1 Кол-во студентов ИБК:</t>
+  </si>
+  <si>
+    <t>2 Кол-во студентов ИБК 1997 гр:</t>
+  </si>
+  <si>
+    <t>Суммарная стипендия ИБК 1997 гр:</t>
+  </si>
+  <si>
+    <t>Суммарная стипендия:</t>
+  </si>
+  <si>
+    <t>4 Кол-во студентов:</t>
+  </si>
+  <si>
+    <t>Ср Знач:</t>
+  </si>
+  <si>
+    <t>3 Кол-во студентов ИБК 1 дневной фо:</t>
   </si>
 </sst>
 </file>
@@ -298,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -367,11 +411,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,11 +505,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -415,9 +575,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +615,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,7 +863,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -713,24 +873,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938ACFBB-6E67-4A08-BC3D-A254FF40E179}">
   <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="2.5" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,419 +921,634 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="K1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="13">
         <v>35337</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="12">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15">
+        <f>IF(I2="Дневная",2000,IF(I2="Вечерняя",1000,IF(I2="Заочная",500,0)))</f>
+        <v>2000</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="15">
+        <f>IF(AND(K2="Да",H2=1),J2*4,IF(AND(K2="Да",OR(H2=2,H2=3)),J2*2.5,IF(AND(K2="Да",H2&gt;3),J2*1.5,"-")))</f>
+        <v>5000</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="22">
+        <f>DCOUNT(A1:L15,H1,J18:J19)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="9">
         <v>34604</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11">
+        <f>IF(I3="Дневная",2000,IF(I3="Вечерняя",1000,IF(I3="Заочная",500,0)))</f>
+        <v>2000</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="11" t="str">
+        <f t="shared" ref="L3:L15" si="0">IF(AND(K3="Да",H3=1),J3*4,IF(AND(K3="Да",OR(H3=2,H3=3)),J3*2.5,IF(AND(K3="Да",H3&gt;3),J3*1.5,"-")))</f>
+        <v>-</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="23"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <v>35593</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="J4" s="11">
+        <f t="shared" ref="J4:J15" si="1">IF(I4="Дневная",2000,IF(I4="Вечерняя",1000,IF(I4="Заочная",500,0)))</f>
+        <v>1000</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="23">
+        <f>DCOUNT(A1:L15,H1,A18:C19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>35465</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="8">
         <v>2</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="I5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="23">
+        <f>DSUM(A1:L15,J1,A18:C19)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>35615</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>34593</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" s="23">
+        <f>DCOUNT(A1:L15,J1,J18:L19)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <v>35614</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" s="23">
+        <f>DSUM(A1:L15,J1,J18:L19)</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>34703</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="J9" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="11">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>35121</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="J10" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="23">
+        <f>DCOUNT(A1:L15,J1,A18:F19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>35339</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="11">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="24">
+        <f>DAVERAGE(A1:L15,J1,A18:F19)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>35513</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>34027</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="8">
         <v>3</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="11">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <v>33594</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="8">
         <v>5</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <v>33158</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="4">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:15" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1188,7 +1566,7 @@
       <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -1197,57 +1575,57 @@
       <c r="L18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="J19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N20" s="6" t="s">
+    <row r="20" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1363,7 +1741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1392,7 +1770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>34</v>
       </c>
@@ -1450,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1479,7 +1857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>
@@ -1508,7 +1886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1537,7 +1915,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1566,7 +1944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -1595,12 +1973,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +2036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>27</v>
       </c>
@@ -1687,7 +2065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>30</v>
       </c>
@@ -1716,7 +2094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -1745,7 +2123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>51</v>
       </c>
@@ -1774,12 +2152,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>16</v>
       </c>
@@ -1837,7 +2215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>30</v>
       </c>
@@ -1866,7 +2244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -1895,7 +2273,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
@@ -1924,12 +2302,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -1958,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -1987,12 +2365,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -2021,7 +2399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>9</v>
       </c>
@@ -2050,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
@@ -2108,7 +2486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>30</v>
       </c>
@@ -2137,7 +2515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>34</v>
       </c>
@@ -2166,7 +2544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -2195,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>42</v>
       </c>
@@ -2224,7 +2602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>46</v>
       </c>
@@ -2266,13 +2644,13 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -2330,7 +2708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -2359,7 +2737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2388,7 +2766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2417,7 +2795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -2446,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>34</v>
       </c>
@@ -2475,7 +2853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2504,7 +2882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -2533,7 +2911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>46</v>
       </c>
@@ -2562,7 +2940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
@@ -2591,7 +2969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
@@ -2620,13 +2998,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
